--- a/The Economics Daily/10-10-18/nonfarmpay.xlsx
+++ b/The Economics Daily/10-10-18/nonfarmpay.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1740" yWindow="0" windowWidth="25600" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Industry</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>year_perc_employ</t>
+  </si>
+  <si>
+    <t>stat_s</t>
   </si>
 </sst>
 </file>
@@ -163,8 +166,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -179,11 +190,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -513,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -524,9 +543,10 @@
     <col min="1" max="1" width="43.33203125" customWidth="1"/>
     <col min="2" max="2" width="35.83203125" customWidth="1"/>
     <col min="3" max="3" width="44.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:4" ht="16">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -536,8 +556,11 @@
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16">
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -547,8 +570,11 @@
       <c r="C2" s="6">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16">
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -558,8 +584,11 @@
       <c r="C3">
         <v>8.8000000000000009E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="16">
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -569,8 +598,11 @@
       <c r="C4">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="16">
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -580,8 +612,11 @@
       <c r="C5">
         <v>2.2000000000000002E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="16">
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -591,8 +626,11 @@
       <c r="C6">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="16">
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -602,8 +640,9 @@
       <c r="C7">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="16">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="16">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -613,8 +652,11 @@
       <c r="C8">
         <v>3.3000000000000002E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="16">
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -624,8 +666,9 @@
       <c r="C9">
         <v>-6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="16">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="16">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -635,8 +678,9 @@
       <c r="C10">
         <v>-6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="16">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" ht="16">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -646,8 +690,11 @@
       <c r="C11">
         <v>1.3999999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="16">
+      <c r="D11" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -657,8 +704,11 @@
       <c r="C12">
         <v>2.7000000000000003E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="16">
+      <c r="D12" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -668,8 +718,9 @@
       <c r="C13">
         <v>1.3000000000000001E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="16">
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" ht="16">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -679,8 +730,11 @@
       <c r="C14">
         <v>2.1000000000000001E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="16">
+      <c r="D14" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -690,8 +744,11 @@
       <c r="C15">
         <v>1.8000000000000002E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="16">
+      <c r="D15" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -701,8 +758,11 @@
       <c r="C16">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="16">
+      <c r="D16" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -712,8 +772,11 @@
       <c r="C17">
         <v>-3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="16">
+      <c r="D17" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -723,8 +786,9 @@
       <c r="C18">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="16">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="16">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -750,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1017,6 +1081,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
